--- a/medicine/Mort/Cimetière_marin/Cimetière_marin.xlsx
+++ b/medicine/Mort/Cimetière_marin/Cimetière_marin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin</t>
+          <t>Cimetière_marin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cimetière marin est un cimetière situé face à la mer. Le plus célèbre est celui de Sète, dans le sud de la France, immortalisé par le poème Le Cimetière marin de Paul Valéry et par  Georges Brassens qui chantait « que mon cimetière soit plus marin que le sien » dans : Supplique pour être enterré à la plage de Sète.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin</t>
+          <t>Cimetière_marin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste de cimetières marins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> France :
 Cimetière marin de Port-Louis (Morbihan) ;
@@ -519,7 +533,7 @@
 Cimetière marin de Ciboure ;
 Cimetière américain de Colleville-sur-Mer ;
 Cimetière de Granville ;
-Cimetière marin de Gruissan[1] ;
+Cimetière marin de Gruissan ;
 Cimetière marin de Landévennec ;
 Cimetière marin de Lorient à Saint-Barthélemy ;
 Cimetière marin de Saint-Michel-en-Grève ;
@@ -528,7 +542,7 @@
 Cimetière marin de Sète ;
 Cimetière marin de Tréboul (Douarnenez) ;
 Cimetière marin de Varengeville-sur-Mer ;
-Cimetière du Vil à Roscoff[2].
+Cimetière du Vil à Roscoff.
  Maroc :
 Cimetière marin des Oudayas à Rabat
 Cimetière marin de Salé
@@ -538,7 +552,7 @@
 Cimetière marin de Souillac.
  Tunisie :
 Cimetière marin de Mahdia ;
-Cimetière marin de Monastir[3].
+Cimetière marin de Monastir.
  Écosse :
 Cimetière marin de Saint Andrews.
  Porto Rico :
